--- a/rmonize/data_dictionary/DD_DONALD_P2.xlsx
+++ b/rmonize/data_dictionary/DD_DONALD_P2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>index</t>
   </si>
@@ -43,9 +43,6 @@
     <t>AGE_BASE</t>
   </si>
   <si>
-    <t>EDU_LEVEL_P</t>
-  </si>
-  <si>
     <t>EMPLOY_P</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>HDL measured from blood samples [mg/dl]</t>
   </si>
   <si>
-    <t>parental education status</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
@@ -364,61 +358,76 @@
     <t>female</t>
   </si>
   <si>
-    <t>Early Childhood Education</t>
-  </si>
-  <si>
-    <t>Primary Education</t>
-  </si>
-  <si>
-    <t>Lower Secondary Education</t>
-  </si>
-  <si>
-    <t>Upper Secondary Education</t>
-  </si>
-  <si>
-    <t>Post-secondary non-tertiary education</t>
-  </si>
-  <si>
-    <t>Short-Cycle Tertiary Education</t>
-  </si>
-  <si>
-    <t>Bachelor's or equivalent level</t>
-  </si>
-  <si>
-    <t>Master's or equivalent level</t>
-  </si>
-  <si>
-    <t>Doctoral or equivalent level</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>employed-full time</t>
-  </si>
-  <si>
-    <t>employed-part time</t>
-  </si>
-  <si>
-    <t>retired</t>
-  </si>
-  <si>
-    <t>unemployed</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>housewife/-men</t>
+    <t>m_schulab</t>
+  </si>
+  <si>
+    <t>Schuldbildung der Mutter</t>
+  </si>
+  <si>
+    <t>v_schulab</t>
+  </si>
+  <si>
+    <t>Schuldbildung des Vaters</t>
+  </si>
+  <si>
+    <t>b_berufsab</t>
+  </si>
+  <si>
+    <t>Berufsabschluss der Mutter</t>
+  </si>
+  <si>
+    <t>v_berufsab</t>
+  </si>
+  <si>
+    <t>Berufsabschluss des Vaters</t>
+  </si>
+  <si>
+    <t>Volks-/Hauptschulabschluss</t>
+  </si>
+  <si>
+    <t>Mittlere Reife, Realschulabschluss (Fachschulreife)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachhochschulreife, Abschluss einer Fachoberschule etc.       </t>
+  </si>
+  <si>
+    <t>Abitur (Hochschulreife)</t>
+  </si>
+  <si>
+    <t>keinen dieser Abschlüsse</t>
+  </si>
+  <si>
+    <t>m_berufsab</t>
+  </si>
+  <si>
+    <t>Lehre (beruflich-betriebliche Ausbildung)</t>
+  </si>
+  <si>
+    <t>Berufsschule, Handelsschule (berufl.-schulische Ausbildung)</t>
+  </si>
+  <si>
+    <t>Fachschule (z.B. Meister-Technikerschule, Berufs/Fachakademie)</t>
+  </si>
+  <si>
+    <t>Fachhochschule, Ingenieurschule</t>
+  </si>
+  <si>
+    <t>Universität, Hochschule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anderer Abschluss (bis 3/2016 berufl. Praktikum)                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kein beruflicher Abschluss     </t>
+  </si>
+  <si>
+    <t>noch in beruflicher Ausbildung (Auszubildener / Student)</t>
   </si>
 </sst>
 </file>
@@ -757,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -805,10 +814,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -819,10 +828,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -830,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -844,13 +853,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -858,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -872,13 +881,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -886,13 +895,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -900,13 +909,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -914,13 +923,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -928,13 +937,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -942,13 +951,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -956,13 +965,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -970,13 +979,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -984,13 +993,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -998,13 +1007,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1012,13 +1021,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1026,13 +1035,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1040,13 +1049,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1054,13 +1063,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1068,13 +1077,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1082,13 +1091,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,13 +1105,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1110,13 +1119,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1124,13 +1133,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1138,13 +1147,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1152,13 +1161,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1166,13 +1175,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1180,13 +1189,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1194,13 +1203,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1208,13 +1217,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1222,13 +1231,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1236,13 +1245,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1250,13 +1259,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1264,13 +1273,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1278,13 +1287,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1292,13 +1301,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1306,13 +1315,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1320,13 +1329,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1334,13 +1343,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1348,13 +1357,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1362,13 +1371,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1376,13 +1385,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1390,13 +1399,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1404,13 +1413,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1418,13 +1427,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1432,13 +1441,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1446,13 +1455,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1460,13 +1469,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1474,13 +1483,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1488,13 +1497,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1502,13 +1511,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1516,13 +1525,55 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>58</v>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,7 +1597,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1563,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1574,216 +1625,315 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/rmonize/data_dictionary/DD_DONALD_P2.xlsx
+++ b/rmonize/data_dictionary/DD_DONALD_P2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>index</t>
   </si>
@@ -428,6 +428,27 @@
   </si>
   <si>
     <t>noch in beruflicher Ausbildung (Auszubildener / Student)</t>
+  </si>
+  <si>
+    <t>employed-full time</t>
+  </si>
+  <si>
+    <t>employed-part time</t>
+  </si>
+  <si>
+    <t>housewife/-men</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -1584,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1915,24 +1936,101 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="B37">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>113</v>
       </c>
     </row>

--- a/rmonize/data_dictionary/DD_DONALD_P2.xlsx
+++ b/rmonize/data_dictionary/DD_DONALD_P2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78275A53-95C3-4D87-9C8E-A8571778C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="142">
   <si>
     <t>index</t>
   </si>
@@ -376,15 +377,9 @@
     <t>Schuldbildung des Vaters</t>
   </si>
   <si>
-    <t>b_berufsab</t>
-  </si>
-  <si>
     <t>Berufsabschluss der Mutter</t>
   </si>
   <si>
-    <t>v_berufsab</t>
-  </si>
-  <si>
     <t>Berufsabschluss des Vaters</t>
   </si>
   <si>
@@ -403,9 +398,6 @@
     <t>keinen dieser Abschlüsse</t>
   </si>
   <si>
-    <t>m_berufsab</t>
-  </si>
-  <si>
     <t>Lehre (beruflich-betriebliche Ausbildung)</t>
   </si>
   <si>
@@ -449,12 +441,18 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>m_berufab</t>
+  </si>
+  <si>
+    <t>v_berufab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +507,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,20 +784,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A57"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="74.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -827,7 +825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -841,7 +839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -855,7 +853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -869,7 +867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -883,35 +881,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -925,7 +923,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -939,7 +937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -953,7 +951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -967,7 +965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -981,7 +979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -995,7 +993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1023,7 +1021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1163,7 +1161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1177,7 +1175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1191,7 +1189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1247,7 +1245,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1275,7 +1273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1345,7 +1343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1359,7 +1357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1429,7 +1427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1443,7 +1441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1457,7 +1455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1485,7 +1483,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1527,7 +1525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1604,19 +1602,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1649,7 +1647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1657,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -1668,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
@@ -1679,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1690,10 +1688,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -1701,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -1712,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -1723,10 +1721,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>116</v>
       </c>
@@ -1734,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>116</v>
       </c>
@@ -1745,10 +1743,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -1756,186 +1754,186 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1943,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1954,10 +1952,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1965,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1976,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1987,10 +1985,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1998,10 +1996,10 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2009,10 +2007,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
